--- a/propuesta bdd/Propuesta base de datos SEG v3.xlsx
+++ b/propuesta bdd/Propuesta base de datos SEG v3.xlsx
@@ -5,40 +5,47 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristian\Desktop\Universidad\pracitca\Propuesta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristian\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88469CEA-11DB-43E6-8199-2C477D2D190F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDA9E9C-1701-4795-8DAC-3A919C29B89A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="859" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="859" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="19" r:id="rId1"/>
-    <sheet name="Empleado" sheetId="22" r:id="rId2"/>
-    <sheet name="conformacion_servicio" sheetId="26" r:id="rId3"/>
-    <sheet name="TipoCargo" sheetId="25" r:id="rId4"/>
-    <sheet name="Cliente" sheetId="1" r:id="rId5"/>
-    <sheet name="TipoCliente" sheetId="23" r:id="rId6"/>
-    <sheet name="TipoContrato" sheetId="24" r:id="rId7"/>
+    <sheet name="Empleado" sheetId="22" state="hidden" r:id="rId2"/>
+    <sheet name="cuadrilla" sheetId="26" state="hidden" r:id="rId3"/>
+    <sheet name="TipoCargo" sheetId="25" state="hidden" r:id="rId4"/>
+    <sheet name="Cliente" sheetId="1" state="hidden" r:id="rId5"/>
+    <sheet name="TipoCliente" sheetId="23" state="hidden" r:id="rId6"/>
+    <sheet name="TipoContrato" sheetId="24" state="hidden" r:id="rId7"/>
     <sheet name="Ejecutivo" sheetId="3" state="hidden" r:id="rId8"/>
-    <sheet name="Proyecto" sheetId="2" r:id="rId9"/>
-    <sheet name="Servicio" sheetId="21" r:id="rId10"/>
-    <sheet name="Especialidad" sheetId="20" r:id="rId11"/>
-    <sheet name="Presupuesto" sheetId="4" r:id="rId12"/>
-    <sheet name="MaterialOProducto" sheetId="5" r:id="rId13"/>
-    <sheet name="Solicitud_Materiales" sheetId="6" r:id="rId14"/>
-    <sheet name="TipoModelo" sheetId="14" r:id="rId15"/>
-    <sheet name="afectoexento" sheetId="15" r:id="rId16"/>
-    <sheet name="ListaServicio" sheetId="16" r:id="rId17"/>
-    <sheet name="EncargadoBodega_Bodega" sheetId="7" r:id="rId18"/>
-    <sheet name="OrdenBodega" sheetId="8" r:id="rId19"/>
-    <sheet name="Producto" sheetId="9" state="hidden" r:id="rId20"/>
-    <sheet name="SubCategoria" sheetId="12" r:id="rId21"/>
-    <sheet name="Categoria" sheetId="11" r:id="rId22"/>
-    <sheet name="ListaPrecios" sheetId="13" r:id="rId23"/>
-    <sheet name="Proveedor" sheetId="10" r:id="rId24"/>
-    <sheet name="UnidadMedida" sheetId="17" r:id="rId25"/>
-    <sheet name="Usuario" sheetId="18" r:id="rId26"/>
+    <sheet name="Proyecto" sheetId="2" state="hidden" r:id="rId9"/>
+    <sheet name="Servicio" sheetId="21" state="hidden" r:id="rId10"/>
+    <sheet name="Especialidad" sheetId="20" state="hidden" r:id="rId11"/>
+    <sheet name="Estado_Especialidad" sheetId="27" state="hidden" r:id="rId12"/>
+    <sheet name="Presupuesto" sheetId="4" state="hidden" r:id="rId13"/>
+    <sheet name="MaterialOProducto" sheetId="5" state="hidden" r:id="rId14"/>
+    <sheet name="Moneda" sheetId="33" state="hidden" r:id="rId15"/>
+    <sheet name="Solicitud_Materiales" sheetId="6" state="hidden" r:id="rId16"/>
+    <sheet name="TipoModelo" sheetId="14" state="hidden" r:id="rId17"/>
+    <sheet name="afectoexento" sheetId="15" state="hidden" r:id="rId18"/>
+    <sheet name="ListaServicio" sheetId="16" state="hidden" r:id="rId19"/>
+    <sheet name="EncargadoBodega_Bodega" sheetId="7" state="hidden" r:id="rId20"/>
+    <sheet name="OrdenBodega" sheetId="8" state="hidden" r:id="rId21"/>
+    <sheet name="Producto" sheetId="9" state="hidden" r:id="rId22"/>
+    <sheet name="SubCategoria" sheetId="12" state="hidden" r:id="rId23"/>
+    <sheet name="Categoria" sheetId="11" state="hidden" r:id="rId24"/>
+    <sheet name="ListaPrecios" sheetId="13" state="hidden" r:id="rId25"/>
+    <sheet name="TipoProducto" sheetId="32" state="hidden" r:id="rId26"/>
+    <sheet name="Proveedor" sheetId="10" state="hidden" r:id="rId27"/>
+    <sheet name="Nacionalidad" sheetId="28" state="hidden" r:id="rId28"/>
+    <sheet name="Banco" sheetId="30" state="hidden" r:id="rId29"/>
+    <sheet name="Region" sheetId="29" state="hidden" r:id="rId30"/>
+    <sheet name="UnidadMedida" sheetId="17" state="hidden" r:id="rId31"/>
+    <sheet name="Ciudad" sheetId="31" state="hidden" r:id="rId32"/>
+    <sheet name="Usuario" sheetId="18" r:id="rId33"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="182">
   <si>
     <t>Rut</t>
   </si>
@@ -100,15 +107,9 @@
     <t>Comentarios</t>
   </si>
   <si>
-    <t>Cargo</t>
-  </si>
-  <si>
     <t>Codigo_Bodega</t>
   </si>
   <si>
-    <t>Nombre_Encargado</t>
-  </si>
-  <si>
     <t>Nombre_bodega</t>
   </si>
   <si>
@@ -277,9 +278,6 @@
     <t>Afecto/Exento</t>
   </si>
   <si>
-    <t>Tabla_Lista</t>
-  </si>
-  <si>
     <t>Tipo_Moneda</t>
   </si>
   <si>
@@ -502,9 +500,6 @@
     <t>PrecioFinal</t>
   </si>
   <si>
-    <t>ID_listaPrecio</t>
-  </si>
-  <si>
     <t>ID_Proveedor</t>
   </si>
   <si>
@@ -529,9 +524,6 @@
     <t>Representante</t>
   </si>
   <si>
-    <t>Personal Técnico</t>
-  </si>
-  <si>
     <t>Tiempo Entrega</t>
   </si>
   <si>
@@ -553,9 +545,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>id_ejecutivo</t>
-  </si>
-  <si>
     <t>periodo_acceso</t>
   </si>
   <si>
@@ -587,6 +576,42 @@
   </si>
   <si>
     <t>id_personal</t>
+  </si>
+  <si>
+    <t>id_Tabla_Lista</t>
+  </si>
+  <si>
+    <t>ID_EstadoEspecialidad</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>id_EstadoEspecialidad</t>
+  </si>
+  <si>
+    <t>Nombre Tecnico</t>
+  </si>
+  <si>
+    <t>varchar(15)</t>
+  </si>
+  <si>
+    <t>Pais</t>
+  </si>
+  <si>
+    <t>Id_Ciudad</t>
+  </si>
+  <si>
+    <t>Varchar(40)</t>
+  </si>
+  <si>
+    <t>Averiguar</t>
+  </si>
+  <si>
+    <t>Analizar si agregar otra tabla específicamente para esto</t>
+  </si>
+  <si>
+    <t>NombreMoneda</t>
   </si>
 </sst>
 </file>
@@ -689,7 +714,7 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -705,6 +730,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1047,7 +1073,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -1060,7 +1086,7 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -1073,7 +1099,7 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -1086,7 +1112,7 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -1109,7 +1135,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1130,10 +1156,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1143,48 +1169,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>115</v>
+      <c r="A2" t="s">
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K2" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+        <v>113</v>
+      </c>
+      <c r="K3" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -1192,57 +1212,74 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>129</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>131</v>
+      <c r="A6" s="15" t="s">
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+        <v>124</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>126</v>
+      </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A6" location="ListaServicio!A1" display="Tipo de Servicio" xr:uid="{C52F4D9A-EB23-456E-9CAD-0299D69ED0DF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1254,19 +1291,21 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="G1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1274,35 +1313,12 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" t="s">
-        <v>138</v>
+      <c r="A3" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1312,6 +1328,9 @@
       <c r="C6" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" location="Estado_Especialidad!A1" display="id_EstadoEspecialidad" xr:uid="{EFEBD51B-81D7-4D78-96CF-2F3E2A442AED}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1319,27 +1338,81 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4AC0A4-1A17-408A-9C9F-6939E089564C}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8B30CA-54FD-4C79-BE64-0D4975C1E690}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1347,110 +1420,102 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>156</v>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D14" s="2"/>
     </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+    </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A5" location="Proyecto!A1" display="Proyecto" xr:uid="{62FD5312-09BF-4EBE-A5A0-11EAC9CBD237}"/>
-    <hyperlink ref="A6" location="MaterialOProducto!A1" display="Codigo_Material" xr:uid="{D0FDBB69-B7C5-4DCB-A7BE-F085A2844F07}"/>
+    <hyperlink ref="A4" location="Proyecto!A1" display="Proyecto" xr:uid="{62FD5312-09BF-4EBE-A5A0-11EAC9CBD237}"/>
+    <hyperlink ref="A5" location="MaterialOProducto!A1" display="Codigo_Material" xr:uid="{D0FDBB69-B7C5-4DCB-A7BE-F085A2844F07}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0419D340-4F1F-4EA5-B9DA-166D17B8BFF6}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A2:Q19"/>
+  <dimension ref="A2:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
@@ -1463,10 +1528,10 @@
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1"/>
       <c r="F2" s="1"/>
@@ -1481,15 +1546,15 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1497,95 +1562,99 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>98</v>
+      </c>
+      <c r="D6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>72</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1593,23 +1662,15 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1621,13 +1682,44 @@
     <hyperlink ref="A18" location="EncargadoBodega_Bodega!A1" display="IdBodega" xr:uid="{8A8EF961-2BCC-441E-905F-AB40AE61099A}"/>
     <hyperlink ref="A4" location="TipoModelo!A1" display="IDTipoModelo" xr:uid="{73918538-7CF9-4D4B-BCFF-F64C886FA711}"/>
     <hyperlink ref="A15" location="ListaPrecios!A1" display="Tabla_Lista" xr:uid="{BA33453F-D23E-43B3-9675-9E594E74B326}"/>
-    <hyperlink ref="A19" location="ListaPrecios!A1" display="ID_listaPrecio" xr:uid="{3AD0A5E9-6BBE-4447-92CF-767A1D7CC0DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE2E87A-6A1D-49B9-B8F8-DA450EADFCA8}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653370B3-7B7F-41AA-A969-8E05F4B6AF24}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -1635,17 +1727,17 @@
   <dimension ref="A2:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J2" s="1"/>
     </row>
@@ -1654,7 +1746,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1662,7 +1754,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1670,7 +1762,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1678,63 +1770,67 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>13</v>
+      <c r="A8" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A7" location="Cliente!A1" display="Nombre" xr:uid="{B477BDF2-4D8F-4911-BB3A-7CAFEDD1906A}"/>
+    <hyperlink ref="A8" location="Empleado!A1" display="Nombre Tecnico" xr:uid="{3037D394-B400-48FB-9EAF-7FB6F7753E47}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2BE34F7-7E03-40F1-B88F-DE1F532AB6D6}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -1747,10 +1843,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1758,7 +1854,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1766,7 +1862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB4DB03-1710-445C-B4C2-B92C89D014AD}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -1779,10 +1875,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1790,13 +1886,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1804,7 +1900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77AF6FFA-9835-4954-833B-FF431E26615F}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -1817,213 +1913,21 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2992E924-03CB-402F-BE96-A43E65272DF8}">
-  <sheetPr>
-    <tabColor theme="9"/>
-  </sheetPr>
-  <dimension ref="A2:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FCA0D0-BF02-4B07-A3A0-A2EEBFEEAB3B}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A2:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A10" location="EncargadoBodega_Bodega!A1" display="Codigo_Bodega" xr:uid="{E08C2E58-0EA7-4A64-BD84-CA0763028A6B}"/>
-    <hyperlink ref="A11" location="Proyecto!A1" display="ID_Proyecto" xr:uid="{34B72E0D-77D4-4C9D-A958-4DB084EC6717}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2043,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2051,15 +1955,15 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2067,23 +1971,23 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2096,6 +2000,196 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2992E924-03CB-402F-BE96-A43E65272DF8}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A2:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A9" location="Empleado!A1" display="Rut_Encargado" xr:uid="{83A72362-45EC-452D-8862-B5CE58120413}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FCA0D0-BF02-4B07-A3A0-A2EEBFEEAB3B}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A2:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A10" location="EncargadoBodega_Bodega!A1" display="Codigo_Bodega" xr:uid="{E08C2E58-0EA7-4A64-BD84-CA0763028A6B}"/>
+    <hyperlink ref="A11" location="Proyecto!A1" display="ID_Proyecto" xr:uid="{34B72E0D-77D4-4C9D-A958-4DB084EC6717}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F47B5E-24FB-482D-B6B2-01C0540F21B6}">
   <dimension ref="A1:O3"/>
   <sheetViews>
@@ -2107,7 +2201,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -2119,39 +2213,39 @@
         <v>8</v>
       </c>
       <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>38</v>
-      </c>
-      <c r="I1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" t="s">
-        <v>40</v>
       </c>
       <c r="K1" t="s">
         <v>4</v>
       </c>
       <c r="M1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2163,7 +2257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0108462-B89C-475F-BD4E-5D99FC652A69}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -2176,10 +2270,10 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2187,15 +2281,15 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2204,33 +2298,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9ADF4B-7D2A-4E87-8D20-40AF77C97450}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A2:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2241,7 +2333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8C3263-205A-48FA-B83D-EDD21CF3506A}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -2249,85 +2341,85 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
         <v>79</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>80</v>
       </c>
-      <c r="C3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" t="s">
-        <v>83</v>
-      </c>
       <c r="F3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -2349,7 +2441,47 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C03AD0-6769-4261-8D79-AFFC8B2F67F9}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D62314-C582-4841-A3CA-B25720C56991}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -2357,7 +2489,7 @@
   <dimension ref="A2:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2370,97 +2502,97 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -2471,7 +2603,148 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D42EBE37-8982-4324-B1C7-365B99094033}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1E8597-5FDC-403C-AA50-5D88F92F543B}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F5C24E-9EBE-4709-9ABF-69D444053A24}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586B679D-CAA8-467A-9E29-AEFEC1DF75EB}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE4F104-10E7-491A-87D7-83935AEE31D8}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -2486,10 +2759,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2497,7 +2770,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2505,14 +2778,45 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76590F93-3AD7-47F7-935F-740172A5D02C}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2BAEBA-D984-430B-8FDB-FAB0D8D0DB37}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A2:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -2520,18 +2824,18 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2539,49 +2843,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F5C24E-9EBE-4709-9ABF-69D444053A24}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" t="s">
-        <v>174</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2593,18 +2855,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351E8A77-AADD-4444-9857-29295CFFE757}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2612,7 +2872,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2627,9 +2887,7 @@
   </sheetPr>
   <dimension ref="A2:U21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2646,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -2656,7 +2914,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -2664,23 +2922,23 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -2688,122 +2946,119 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B20" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="B21" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A20" location="TipoCliente!A1" display="id" xr:uid="{C8B906D2-5B98-4103-A39C-65F435666B32}"/>
-    <hyperlink ref="A21" location="TipoContrato!A1" display="id_TipoContrato" xr:uid="{6B0C0EDE-35C7-4B24-A53D-80DF7E3C3E08}"/>
+    <hyperlink ref="A19" location="TipoCliente!A1" display="id" xr:uid="{C8B906D2-5B98-4103-A39C-65F435666B32}"/>
+    <hyperlink ref="A20" location="TipoContrato!A1" display="id_TipoContrato" xr:uid="{6B0C0EDE-35C7-4B24-A53D-80DF7E3C3E08}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2814,57 +3069,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FF05D4-11EC-4AF2-8684-972B3A32908A}">
   <dimension ref="A1:B2"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E10604C-720B-43E9-8543-BA7CBF010E77}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="B1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E10604C-720B-43E9-8543-BA7CBF010E77}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2888,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2896,7 +3149,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2904,7 +3157,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2912,7 +3165,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2928,7 +3181,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2938,33 +3191,33 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C2" s="1"/>
       <c r="J2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -2972,15 +3225,15 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -2988,79 +3241,79 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
